--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_KRD.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_KRD.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Cycle: December, 2020        Evaluation Date: December 31, 2020</t>
   </si>
   <si>
-    <t>Printed on: 01/26/21 5:28:04 PM</t>
+    <t>Printed on: 02/10/21 4:47:48 AM</t>
   </si>
   <si>
     <t>Comments:</t>
@@ -3941,37 +3941,37 @@
         <v>18</v>
       </c>
       <c r="B7" s="236">
-        <v>137652.98448270303</v>
+        <v>137411.13891592843</v>
       </c>
       <c r="C7" s="236">
-        <v>0.063839036265803159</v>
+        <v>0.063691117746188727</v>
       </c>
       <c r="D7" s="236">
-        <v>0.40672182826790643</v>
+        <v>0.40515891111863805</v>
       </c>
       <c r="E7" s="236">
-        <v>0.64863469339133462</v>
+        <v>0.65041938760728391</v>
       </c>
       <c r="F7" s="236">
-        <v>0.34067323346922374</v>
+        <v>0.34298134517845685</v>
       </c>
       <c r="G7" s="236">
-        <v>0.19402547541077042</v>
+        <v>0.19581267935890862</v>
       </c>
       <c r="H7" s="236">
-        <v>0.14043419868233786</v>
+        <v>0.14271813529388236</v>
       </c>
       <c r="I7" s="236">
-        <v>0.037155812751229207</v>
+        <v>0.037884162184829838</v>
       </c>
       <c r="J7" s="236">
-        <v>0.0064913959422503954</v>
+        <v>0.0064765989161708736</v>
       </c>
       <c r="K7" s="236">
-        <v>1.8326827288723522</v>
+        <v>1.8398877880891247</v>
       </c>
       <c r="L7" s="236">
-        <v>-0.31301880051647413</v>
+        <v>-0.31101699295647867</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
@@ -4031,37 +4031,37 @@
         <v>20</v>
       </c>
       <c r="B10" s="236">
-        <v>23019.922971081007</v>
+        <v>22778.077404306416</v>
       </c>
       <c r="C10" s="236">
-        <v>0.12739308150783302</v>
+        <v>0.12717553074326918</v>
       </c>
       <c r="D10" s="236">
-        <v>0.75750092501840527</v>
+        <v>0.75179685027473142</v>
       </c>
       <c r="E10" s="236">
-        <v>2.1603319552182163</v>
+        <v>2.1871487113057309</v>
       </c>
       <c r="F10" s="236">
-        <v>0.9437473775068197</v>
+        <v>0.964074425249136</v>
       </c>
       <c r="G10" s="236">
-        <v>0.38815560758813161</v>
+        <v>0.40099827365870461</v>
       </c>
       <c r="H10" s="236">
-        <v>0.025806872380363104</v>
+        <v>0.038367907064286132</v>
       </c>
       <c r="I10" s="236">
-        <v>-0.079571372191696327</v>
+        <v>-0.0764168753597276</v>
       </c>
       <c r="J10" s="236">
-        <v>0.00049850907233325316</v>
+        <v>0.00034561516240055705</v>
       </c>
       <c r="K10" s="236">
-        <v>4.3427536664583837</v>
+        <v>4.412869545562307</v>
       </c>
       <c r="L10" s="236">
-        <v>-2.6870877536948519</v>
+        <v>-2.7002182470834017</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -4188,28 +4188,28 @@
         <v>32</v>
       </c>
       <c r="D40" s="236">
-        <v>12261.903651607508</v>
+        <v>12112.361206013666</v>
       </c>
       <c r="E40" s="236">
-        <v>17480.239684011762</v>
+        <v>17166.348141810275</v>
       </c>
       <c r="F40" s="236">
-        <v>16618.580236695128</v>
+        <v>16648.110127091175</v>
       </c>
       <c r="G40" s="236">
-        <v>4363.2674101135044</v>
+        <v>4410.4188228167222</v>
       </c>
       <c r="H40" s="236">
-        <v>1283.8888651898969</v>
+        <v>1312.4333842860754</v>
       </c>
       <c r="I40" s="236">
-        <v>59.9235481718383</v>
+        <v>88.154290500069763</v>
       </c>
       <c r="J40" s="236">
-        <v>-92.728963458614587</v>
+        <v>-88.117269628034933</v>
       </c>
       <c r="K40" s="236">
-        <v>0.38817090786701369</v>
+        <v>0.26629064054565454</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
@@ -4217,28 +4217,28 @@
         <v>33</v>
       </c>
       <c r="D41" s="236">
-        <v>11.040565468635791</v>
+        <v>10.905918091863891</v>
       </c>
       <c r="E41" s="236">
-        <v>17.476059234902728</v>
+        <v>17.162242760757607</v>
       </c>
       <c r="F41" s="236">
-        <v>41.614639141928428</v>
+        <v>41.688585033528646</v>
       </c>
       <c r="G41" s="236">
-        <v>32.540799173882505</v>
+        <v>32.892449555883807</v>
       </c>
       <c r="H41" s="236">
-        <v>19.13212303160854</v>
+        <v>19.557484810211871</v>
       </c>
       <c r="I41" s="236">
-        <v>1.013685426754158</v>
+        <v>1.4912454671328899</v>
       </c>
       <c r="J41" s="236">
-        <v>-2.1681569468059712</v>
+        <v>-2.0603278970422902</v>
       </c>
       <c r="K41" s="236">
-        <v>0.00842073366442731</v>
+        <v>0.0057767403891404775</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
@@ -4246,7 +4246,7 @@
         <v>34</v>
       </c>
       <c r="D42" s="236">
-        <v>120.6581352645706</v>
+        <v>121.64337456272557</v>
       </c>
       <c r="E42" s="236">
         <v>0</v>
@@ -4319,28 +4319,28 @@
         <v>44</v>
       </c>
       <c r="D46" s="236">
-        <v>22877.852784559469</v>
+        <v>22643.433306137751</v>
       </c>
       <c r="E46" s="236">
-        <v>23063.006039018317</v>
+        <v>22825.521061769981</v>
       </c>
       <c r="F46" s="236">
-        <v>23019.922971081007</v>
+        <v>22778.077404306416</v>
       </c>
       <c r="G46" s="236">
-        <v>22459.160311119162</v>
+        <v>22215.400525888494</v>
       </c>
       <c r="H46" s="236">
-        <v>21803.986064311153</v>
+        <v>21559.921414412103</v>
       </c>
       <c r="I46" s="236">
-        <v>20323.780217426116</v>
+        <v>20082.120876905767</v>
       </c>
       <c r="J46" s="236">
-        <v>19029.922828214036</v>
+        <v>18741.902354677492</v>
       </c>
       <c r="K46" s="236">
-        <v>16543.573965141983</v>
+        <v>16221.476392997469</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
@@ -4348,28 +4348,28 @@
         <v>45</v>
       </c>
       <c r="D47" s="236">
-        <v>24036.566493341768</v>
+        <v>23800.508075220845</v>
       </c>
       <c r="E47" s="236">
-        <v>23523.684874781542</v>
+        <v>23284.636164342915</v>
       </c>
       <c r="F47" s="236">
-        <v>23019.922971081014</v>
+        <v>22778.077404306423</v>
       </c>
       <c r="G47" s="236">
-        <v>22525.119479328994</v>
+        <v>22280.659152822634</v>
       </c>
       <c r="H47" s="236">
-        <v>22039.111138308363</v>
+        <v>21792.207588410594</v>
       </c>
       <c r="I47" s="236">
-        <v>21092.821449256458</v>
+        <v>20841.507354443936</v>
       </c>
       <c r="J47" s="236">
-        <v>20179.734652907842</v>
+        <v>19924.586354204359</v>
       </c>
       <c r="K47" s="236">
-        <v>19298.538752478711</v>
+        <v>19040.070547549432</v>
       </c>
     </row>
     <row r="48" hidden="1" ht="15" customHeight="1">
@@ -4390,28 +4390,28 @@
         <v>47</v>
       </c>
       <c r="D49" s="236">
-        <v>5.0647834816225794</v>
+        <v>5.109979363286115</v>
       </c>
       <c r="E49" s="236">
-        <v>1.9974795782641779</v>
+        <v>2.0114112678106486</v>
       </c>
       <c r="F49" s="236">
-        <v>3.160721963893587E-14</v>
+        <v>3.194280836365863E-14</v>
       </c>
       <c r="G49" s="236">
-        <v>0.29368492542073027</v>
+        <v>0.29375399672894686</v>
       </c>
       <c r="H49" s="236">
-        <v>1.0783582107588248</v>
+        <v>1.0773980550931659</v>
       </c>
       <c r="I49" s="236">
-        <v>3.7839477872868716</v>
+        <v>3.7814057698032109</v>
       </c>
       <c r="J49" s="236">
-        <v>6.0421255255385438</v>
+        <v>6.3103732862619486</v>
       </c>
       <c r="K49" s="236">
-        <v>16.652778856258973</v>
+        <v>17.375694334263571</v>
       </c>
     </row>
     <row r="50" hidden="1" ht="15" customHeight="1">
@@ -4714,37 +4714,37 @@
         <v>57</v>
       </c>
       <c r="B79" s="261">
-        <v>1302.1483728592907</v>
+        <v>1299.1592036728609</v>
       </c>
       <c r="C79" s="261">
-        <v>0.038169813391442438</v>
+        <v>0.038007115225326155</v>
       </c>
       <c r="D79" s="261">
-        <v>0.29854619951368627</v>
+        <v>0.29719043644034776</v>
       </c>
       <c r="E79" s="261">
-        <v>0.42710573280811914</v>
+        <v>0.428561123876085</v>
       </c>
       <c r="F79" s="261">
-        <v>0.59258100575031925</v>
+        <v>0.59429007751877061</v>
       </c>
       <c r="G79" s="261">
-        <v>0.88084729851216426</v>
+        <v>0.88181657538671165</v>
       </c>
       <c r="H79" s="261">
-        <v>1.6817205435710043</v>
+        <v>1.6890168105198875</v>
       </c>
       <c r="I79" s="261">
-        <v>1.455295720236411</v>
+        <v>1.4587206083344468</v>
       </c>
       <c r="J79" s="261">
-        <v>0.46970096210850976</v>
+        <v>0.46774094873593214</v>
       </c>
       <c r="K79" s="261">
-        <v>5.837415129651669</v>
+        <v>5.8488021685474019</v>
       </c>
       <c r="L79" s="261">
-        <v>-0.82536530751943038</v>
+        <v>-0.80837347511402213</v>
       </c>
     </row>
     <row r="80" outlineLevel="2">
@@ -4752,37 +4752,37 @@
         <v>58</v>
       </c>
       <c r="B80" s="263">
-        <v>1302.1483728592907</v>
+        <v>1299.1592036728609</v>
       </c>
       <c r="C80" s="263">
-        <v>0.038169813391442438</v>
+        <v>0.038007115225326155</v>
       </c>
       <c r="D80" s="263">
-        <v>0.29854619951368627</v>
+        <v>0.29719043644034776</v>
       </c>
       <c r="E80" s="263">
-        <v>0.42710573280811914</v>
+        <v>0.428561123876085</v>
       </c>
       <c r="F80" s="263">
-        <v>0.59258100575031925</v>
+        <v>0.59429007751877061</v>
       </c>
       <c r="G80" s="263">
-        <v>0.88084729851216426</v>
+        <v>0.88181657538671165</v>
       </c>
       <c r="H80" s="263">
-        <v>1.6817205435710043</v>
+        <v>1.6890168105198875</v>
       </c>
       <c r="I80" s="263">
-        <v>1.455295720236411</v>
+        <v>1.4587206083344468</v>
       </c>
       <c r="J80" s="263">
-        <v>0.46970096210850976</v>
+        <v>0.46774094873593214</v>
       </c>
       <c r="K80" s="263">
-        <v>5.837415129651669</v>
+        <v>5.8488021685474019</v>
       </c>
       <c r="L80" s="263">
-        <v>-0.82536530751943038</v>
+        <v>-0.80837347511402213</v>
       </c>
     </row>
     <row r="81" outlineLevel="2">
@@ -4866,37 +4866,37 @@
         <v>61</v>
       </c>
       <c r="B83" s="263">
-        <v>1535.7005632001187</v>
+        <v>1532.711394013689</v>
       </c>
       <c r="C83" s="263">
-        <v>0.051228526942163906</v>
+        <v>0.05111608821654523</v>
       </c>
       <c r="D83" s="263">
-        <v>0.2551707523454454</v>
+        <v>0.25393698541956738</v>
       </c>
       <c r="E83" s="263">
-        <v>0.51136193720053724</v>
+        <v>0.51275987862598016</v>
       </c>
       <c r="F83" s="263">
-        <v>0.60374125474334783</v>
+        <v>0.6052116660673843</v>
       </c>
       <c r="G83" s="263">
-        <v>0.74688640740280632</v>
+        <v>0.74744673024509256</v>
       </c>
       <c r="H83" s="263">
-        <v>1.4259613637516546</v>
+        <v>1.4316470426952284</v>
       </c>
       <c r="I83" s="263">
-        <v>1.2339716475627187</v>
+        <v>1.2364430194142901</v>
       </c>
       <c r="J83" s="263">
-        <v>0.39826796850645213</v>
+        <v>0.39646730679913955</v>
       </c>
       <c r="K83" s="263">
-        <v>5.2210197723533858</v>
+        <v>5.22946954732463</v>
       </c>
       <c r="L83" s="263">
-        <v>-0.70885838930245848</v>
+        <v>-0.69422852849874039</v>
       </c>
     </row>
     <row r="84" outlineLevel="1">
@@ -4904,37 +4904,37 @@
         <v>62</v>
       </c>
       <c r="B84" s="263">
-        <v>5352.1903110892581</v>
+        <v>5349.2011419028286</v>
       </c>
       <c r="C84" s="263">
-        <v>0.10317954072877883</v>
+        <v>0.10317635413218178</v>
       </c>
       <c r="D84" s="263">
-        <v>0.080779473641982513</v>
+        <v>0.080328510292920222</v>
       </c>
       <c r="E84" s="263">
-        <v>0.84783033935949648</v>
+        <v>0.84841891354988774</v>
       </c>
       <c r="F84" s="263">
-        <v>0.65376143401487741</v>
+        <v>0.65421070389760794</v>
       </c>
       <c r="G84" s="263">
-        <v>0.21430364202827781</v>
+        <v>0.2141665810415373</v>
       </c>
       <c r="H84" s="263">
-        <v>0.40915018751819804</v>
+        <v>0.41021110934785116</v>
       </c>
       <c r="I84" s="263">
-        <v>0.35406270031334025</v>
+        <v>0.35427912572955239</v>
       </c>
       <c r="J84" s="263">
-        <v>0.11427477499674263</v>
+        <v>0.11360013249912293</v>
       </c>
       <c r="K84" s="263">
-        <v>2.7756902230304914</v>
+        <v>2.7767448781998256</v>
       </c>
       <c r="L84" s="263">
-        <v>-0.24520885018032257</v>
+        <v>-0.24075785261565658</v>
       </c>
     </row>
     <row r="85" outlineLevel="2">
@@ -4942,16 +4942,16 @@
         <v>63</v>
       </c>
       <c r="B85" s="261">
-        <v>2933.8432663147173</v>
+        <v>2927.7695119141667</v>
       </c>
       <c r="C85" s="261">
-        <v>0.012871395968401625</v>
+        <v>0.01273713140271463</v>
       </c>
       <c r="D85" s="261">
-        <v>0.11188608314016929</v>
+        <v>0.11079857772279728</v>
       </c>
       <c r="E85" s="261">
-        <v>2.5484415864030869</v>
+        <v>2.5517433072286475</v>
       </c>
       <c r="F85" s="261">
         <v>0</v>
@@ -4969,10 +4969,10 @@
         <v>0</v>
       </c>
       <c r="K85" s="261">
-        <v>2.6723749857515955</v>
+        <v>2.6744656722210918</v>
       </c>
       <c r="L85" s="261">
-        <v>0.070383706475574057</v>
+        <v>0.070689332664786289</v>
       </c>
     </row>
     <row r="86" outlineLevel="2">
@@ -4980,16 +4980,16 @@
         <v>64</v>
       </c>
       <c r="B86" s="261">
-        <v>1977.8718649312702</v>
+        <v>1973.777199043257</v>
       </c>
       <c r="C86" s="261">
-        <v>0.012871395966738598</v>
+        <v>0.012737131403258268</v>
       </c>
       <c r="D86" s="261">
-        <v>0.11188608313748132</v>
+        <v>0.1107985777224634</v>
       </c>
       <c r="E86" s="261">
-        <v>2.5484415864018057</v>
+        <v>2.5517433072265394</v>
       </c>
       <c r="F86" s="261">
         <v>0</v>
@@ -5007,10 +5007,10 @@
         <v>0</v>
       </c>
       <c r="K86" s="261">
-        <v>2.6723749857495305</v>
+        <v>2.6744656722216806</v>
       </c>
       <c r="L86" s="261">
-        <v>0.070383706482639488</v>
+        <v>0.070689332699979748</v>
       </c>
     </row>
     <row r="87" outlineLevel="2">
@@ -5018,16 +5018,16 @@
         <v>65</v>
       </c>
       <c r="B87" s="263">
-        <v>4911.7151312459873</v>
+        <v>4901.5467109574238</v>
       </c>
       <c r="C87" s="263">
-        <v>0.012871395967616221</v>
+        <v>0.012737131402840768</v>
       </c>
       <c r="D87" s="263">
-        <v>0.11188608313908689</v>
+        <v>0.11079857772257006</v>
       </c>
       <c r="E87" s="263">
-        <v>2.5484415864025016</v>
+        <v>2.551743307227845</v>
       </c>
       <c r="F87" s="263">
         <v>0</v>
@@ -5045,10 +5045,10 @@
         <v>0</v>
       </c>
       <c r="K87" s="263">
-        <v>2.6723749857507411</v>
+        <v>2.6744656722213982</v>
       </c>
       <c r="L87" s="263">
-        <v>0.070383706479807961</v>
+        <v>0.070689332678494268</v>
       </c>
     </row>
     <row r="88" outlineLevel="2">
@@ -5056,16 +5056,16 @@
         <v>66</v>
       </c>
       <c r="B88" s="261">
-        <v>6378.3676445405672</v>
+        <v>6372.6182918184195</v>
       </c>
       <c r="C88" s="261">
-        <v>0.073378092688132987</v>
+        <v>0.073432808425932666</v>
       </c>
       <c r="D88" s="261">
-        <v>0.63829563394396516</v>
+        <v>0.63824380137545311</v>
       </c>
       <c r="E88" s="261">
-        <v>0.77923877525537466</v>
+        <v>0.77869312256795609</v>
       </c>
       <c r="F88" s="261">
         <v>0</v>
@@ -5083,10 +5083,10 @@
         <v>0</v>
       </c>
       <c r="K88" s="261">
-        <v>1.4862266935810387</v>
+        <v>1.485680780884902</v>
       </c>
       <c r="L88" s="261">
-        <v>-0.074736840704261481</v>
+        <v>-0.0748353980355793</v>
       </c>
     </row>
     <row r="89" outlineLevel="2">
@@ -5094,25 +5094,25 @@
         <v>67</v>
       </c>
       <c r="B89" s="261">
-        <v>2097.9177789926507</v>
+        <v>2094.0871580145531</v>
       </c>
       <c r="C89" s="261">
-        <v>0.071214216436959576</v>
+        <v>0.071327327546138783</v>
       </c>
       <c r="D89" s="261">
-        <v>0.36547451424350774</v>
+        <v>0.36636488263334038</v>
       </c>
       <c r="E89" s="261">
-        <v>0.2282785671872142</v>
+        <v>0.23370175269549023</v>
       </c>
       <c r="F89" s="261">
-        <v>0.1013604430899441</v>
+        <v>0.10771107845329994</v>
       </c>
       <c r="G89" s="261">
-        <v>0.045847841175328113</v>
+        <v>0.049387370589682927</v>
       </c>
       <c r="H89" s="261">
-        <v>0.0092542683390535539</v>
+        <v>0.010604790084776954</v>
       </c>
       <c r="I89" s="261">
         <v>0</v>
@@ -5121,10 +5121,10 @@
         <v>0</v>
       </c>
       <c r="K89" s="261">
-        <v>0.81704364726012035</v>
+        <v>0.83470454511179437</v>
       </c>
       <c r="L89" s="261">
-        <v>-0.11156640157806393</v>
+        <v>-0.11063252845605096</v>
       </c>
     </row>
     <row r="90" outlineLevel="2">
@@ -5132,37 +5132,37 @@
         <v>68</v>
       </c>
       <c r="B90" s="261">
-        <v>64729.778403904216</v>
+        <v>64570.0672768656</v>
       </c>
       <c r="C90" s="261">
-        <v>0.070694179359758968</v>
+        <v>0.070368532769504236</v>
       </c>
       <c r="D90" s="261">
-        <v>0.53290314726412824</v>
+        <v>0.53002756626698255</v>
       </c>
       <c r="E90" s="261">
-        <v>0.5030327196429466</v>
+        <v>0.5069610086286942</v>
       </c>
       <c r="F90" s="261">
-        <v>0.43745649139738552</v>
+        <v>0.44213143408211664</v>
       </c>
       <c r="G90" s="261">
-        <v>0.39286684532760996</v>
+        <v>0.39678383259222316</v>
       </c>
       <c r="H90" s="261">
-        <v>0.26440525041592705</v>
+        <v>0.26926582481787575</v>
       </c>
       <c r="I90" s="261">
-        <v>0.0497390481063785</v>
+        <v>0.051271366260185552</v>
       </c>
       <c r="J90" s="261">
-        <v>0.0043556410712691385</v>
+        <v>0.004371791556174778</v>
       </c>
       <c r="K90" s="261">
-        <v>2.2467265407674395</v>
+        <v>2.2625301659271142</v>
       </c>
       <c r="L90" s="261">
-        <v>-0.591254880810227</v>
+        <v>-0.58771468811121574</v>
       </c>
     </row>
     <row r="91" outlineLevel="2">
@@ -5170,25 +5170,25 @@
         <v>69</v>
       </c>
       <c r="B91" s="261">
-        <v>759.5349566028093</v>
+        <v>758.148109812388</v>
       </c>
       <c r="C91" s="261">
-        <v>0.071214216436318326</v>
+        <v>0.071327327546128985</v>
       </c>
       <c r="D91" s="261">
-        <v>0.3654745142429805</v>
+        <v>0.3663648826332308</v>
       </c>
       <c r="E91" s="261">
-        <v>0.22827856718728737</v>
+        <v>0.23370175269621885</v>
       </c>
       <c r="F91" s="261">
-        <v>0.10136044309122053</v>
+        <v>0.1077110784556618</v>
       </c>
       <c r="G91" s="261">
-        <v>0.0458478411753894</v>
+        <v>0.049387370589416522</v>
       </c>
       <c r="H91" s="261">
-        <v>0.0092542683393189457</v>
+        <v>0.010604790086426837</v>
       </c>
       <c r="I91" s="261">
         <v>0</v>
@@ -5197,10 +5197,10 @@
         <v>0</v>
       </c>
       <c r="K91" s="261">
-        <v>0.81704364725972267</v>
+        <v>0.83470454511139691</v>
       </c>
       <c r="L91" s="261">
-        <v>-0.11156640160587032</v>
+        <v>-0.11063252851533363</v>
       </c>
     </row>
     <row r="92" outlineLevel="2">
@@ -5208,37 +5208,37 @@
         <v>70</v>
       </c>
       <c r="B92" s="263">
-        <v>65489.313360507018</v>
+        <v>65328.215386677992</v>
       </c>
       <c r="C92" s="263">
-        <v>0.070700210669616265</v>
+        <v>0.070379659790899537</v>
       </c>
       <c r="D92" s="263">
-        <v>0.5309613357991414</v>
+        <v>0.528128225323504</v>
       </c>
       <c r="E92" s="263">
-        <v>0.4998461633553572</v>
+        <v>0.50378977569129813</v>
       </c>
       <c r="F92" s="263">
-        <v>0.43355850126175344</v>
+        <v>0.438250413316392</v>
       </c>
       <c r="G92" s="263">
-        <v>0.38884217243463537</v>
+        <v>0.39275222129737658</v>
       </c>
       <c r="H92" s="263">
-        <v>0.26144604867514376</v>
+        <v>0.266264007404057</v>
       </c>
       <c r="I92" s="263">
-        <v>0.049162182297189466</v>
+        <v>0.050676350933592879</v>
       </c>
       <c r="J92" s="263">
-        <v>0.004305125017906441</v>
+        <v>0.0043210559668863009</v>
       </c>
       <c r="K92" s="263">
-        <v>2.2301452990540089</v>
+        <v>2.2459599398899583</v>
       </c>
       <c r="L92" s="263">
-        <v>-0.58569152780489542</v>
+        <v>-0.58217804616612112</v>
       </c>
     </row>
     <row r="93" outlineLevel="2">
@@ -5246,37 +5246,37 @@
         <v>71</v>
       </c>
       <c r="B93" s="263">
-        <v>67587.231139499665</v>
+        <v>67422.302544692546</v>
       </c>
       <c r="C93" s="263">
-        <v>0.070716165485567653</v>
+        <v>0.070409093654807284</v>
       </c>
       <c r="D93" s="263">
-        <v>0.52582460006859055</v>
+        <v>0.52310397480436044</v>
       </c>
       <c r="E93" s="263">
-        <v>0.491416664490087</v>
+        <v>0.49540104022638937</v>
       </c>
       <c r="F93" s="263">
-        <v>0.42324702377356588</v>
+        <v>0.42798410453976438</v>
       </c>
       <c r="G93" s="263">
-        <v>0.378195577012634</v>
+        <v>0.38208756142599648</v>
       </c>
       <c r="H93" s="263">
-        <v>0.25361797803573938</v>
+        <v>0.25832342003741748</v>
       </c>
       <c r="I93" s="263">
-        <v>0.047636180794295012</v>
+        <v>0.049102380723442744</v>
       </c>
       <c r="J93" s="263">
-        <v>0.0041714932923982845</v>
+        <v>0.0041868471448176289</v>
       </c>
       <c r="K93" s="263">
-        <v>2.1862824121026931</v>
+        <v>2.2021273846768135</v>
       </c>
       <c r="L93" s="263">
-        <v>-0.57097461286193418</v>
+        <v>-0.56753218899544233</v>
       </c>
     </row>
     <row r="94" outlineLevel="2">
@@ -5284,16 +5284,16 @@
         <v>72</v>
       </c>
       <c r="B94" s="261">
-        <v>8668.9474233486089</v>
+        <v>8661.133380752728</v>
       </c>
       <c r="C94" s="261">
-        <v>0.073378092687779145</v>
+        <v>0.073432808425971149</v>
       </c>
       <c r="D94" s="261">
-        <v>0.638295633943623</v>
+        <v>0.638243801375262</v>
       </c>
       <c r="E94" s="261">
-        <v>0.77923877525497076</v>
+        <v>0.77869312256792222</v>
       </c>
       <c r="F94" s="261">
         <v>0</v>
@@ -5311,10 +5311,10 @@
         <v>0</v>
       </c>
       <c r="K94" s="261">
-        <v>1.4862266935808906</v>
+        <v>1.4856807808850041</v>
       </c>
       <c r="L94" s="261">
-        <v>-0.074736840718620093</v>
+        <v>-0.0748353980275395</v>
       </c>
     </row>
     <row r="95" outlineLevel="2">
@@ -5322,16 +5322,16 @@
         <v>73</v>
       </c>
       <c r="B95" s="261">
-        <v>563.25732265771217</v>
+        <v>562.74961203302394</v>
       </c>
       <c r="C95" s="261">
-        <v>0.073378092687689217</v>
+        <v>0.073432808426510843</v>
       </c>
       <c r="D95" s="261">
-        <v>0.63829563394422573</v>
+        <v>0.63824380137536885</v>
       </c>
       <c r="E95" s="261">
-        <v>0.77923877525461116</v>
+        <v>0.77869312256819767</v>
       </c>
       <c r="F95" s="261">
         <v>0</v>
@@ -5349,10 +5349,10 @@
         <v>0</v>
       </c>
       <c r="K95" s="261">
-        <v>1.4862266935812853</v>
+        <v>1.4856807808840939</v>
       </c>
       <c r="L95" s="261">
-        <v>-0.074736840740702845</v>
+        <v>-0.074835398033567466</v>
       </c>
     </row>
     <row r="96" outlineLevel="2">
@@ -5360,16 +5360,16 @@
         <v>74</v>
       </c>
       <c r="B96" s="263">
-        <v>9232.20474600632</v>
+        <v>9223.8829927857514</v>
       </c>
       <c r="C96" s="263">
-        <v>0.073378092687718249</v>
+        <v>0.073432808426096521</v>
       </c>
       <c r="D96" s="263">
-        <v>0.63829563394364752</v>
+        <v>0.63824380137531789</v>
       </c>
       <c r="E96" s="263">
-        <v>0.779238775254875</v>
+        <v>0.77869312256788359</v>
       </c>
       <c r="F96" s="263">
         <v>0</v>
@@ -5387,10 +5387,10 @@
         <v>0</v>
       </c>
       <c r="K96" s="263">
-        <v>1.4862266935809703</v>
+        <v>1.4856807808849364</v>
       </c>
       <c r="L96" s="263">
-        <v>-0.074736840721075642</v>
+        <v>-0.074835398025688726</v>
       </c>
     </row>
     <row r="97" outlineLevel="2">
@@ -5398,37 +5398,37 @@
         <v>75</v>
       </c>
       <c r="B97" s="263">
-        <v>88109.518661292546</v>
+        <v>87920.350540254149</v>
       </c>
       <c r="C97" s="263">
-        <v>0.067963195930172818</v>
+        <v>0.067730277611296713</v>
       </c>
       <c r="D97" s="263">
-        <v>0.522676122298272</v>
+        <v>0.52054306929659966</v>
       </c>
       <c r="E97" s="263">
-        <v>0.6570808123798233</v>
+        <v>0.66029600382108222</v>
       </c>
       <c r="F97" s="263">
-        <v>0.324665199169409</v>
+        <v>0.32820244236159873</v>
       </c>
       <c r="G97" s="263">
-        <v>0.29010704255162495</v>
+        <v>0.29300637459620466</v>
       </c>
       <c r="H97" s="263">
-        <v>0.19454580121497317</v>
+        <v>0.1980970238758944</v>
       </c>
       <c r="I97" s="263">
-        <v>0.036540859726136937</v>
+        <v>0.037654485548003026</v>
       </c>
       <c r="J97" s="263">
-        <v>0.0031998776708112289</v>
+        <v>0.003210711435570948</v>
       </c>
       <c r="K97" s="263">
-        <v>2.0893493865681974</v>
+        <v>2.1013671836292009</v>
       </c>
       <c r="L97" s="263">
-        <v>-0.44730210627845068</v>
+        <v>-0.44455020966096148</v>
       </c>
     </row>
     <row r="98" outlineLevel="2">
@@ -5436,16 +5436,16 @@
         <v>76</v>
       </c>
       <c r="B98" s="261">
-        <v>2191.9686515793264</v>
+        <v>2189.6996655818207</v>
       </c>
       <c r="C98" s="261">
-        <v>0.073365098978055876</v>
+        <v>0.07342793329713948</v>
       </c>
       <c r="D98" s="261">
-        <v>0.63833980756390329</v>
+        <v>0.63828033005547125</v>
       </c>
       <c r="E98" s="261">
-        <v>0.77941046853659224</v>
+        <v>0.77878382961337322</v>
       </c>
       <c r="F98" s="261">
         <v>0</v>
@@ -5463,10 +5463,10 @@
         <v>0</v>
       </c>
       <c r="K98" s="261">
-        <v>1.4864302753178864</v>
+        <v>1.4858033835043325</v>
       </c>
       <c r="L98" s="261">
-        <v>-0.0747113348461016</v>
+        <v>-0.074824516977248359</v>
       </c>
     </row>
     <row r="99" outlineLevel="2">
@@ -5474,19 +5474,19 @@
         <v>77</v>
       </c>
       <c r="B99" s="261">
-        <v>10092.414444995287</v>
+        <v>10062.261829635458</v>
       </c>
       <c r="C99" s="261">
-        <v>0.013172137249673232</v>
+        <v>0.013044094430949765</v>
       </c>
       <c r="D99" s="261">
-        <v>0.3201703839810543</v>
+        <v>0.31971110622370891</v>
       </c>
       <c r="E99" s="261">
-        <v>1.5160755644946928</v>
+        <v>1.516598678855769</v>
       </c>
       <c r="F99" s="261">
-        <v>1.1783937885778013</v>
+        <v>1.1809901653876682</v>
       </c>
       <c r="G99" s="261">
         <v>0</v>
@@ -5501,10 +5501,10 @@
         <v>0</v>
       </c>
       <c r="K99" s="261">
-        <v>3.0269751750943428</v>
+        <v>3.0295177841416412</v>
       </c>
       <c r="L99" s="261">
-        <v>0.10150347553357771</v>
+        <v>0.10185423595260487</v>
       </c>
     </row>
     <row r="100" outlineLevel="2">
@@ -5512,19 +5512,19 @@
         <v>78</v>
       </c>
       <c r="B100" s="261">
-        <v>5558.293255437321</v>
+        <v>5550.4685168028691</v>
       </c>
       <c r="C100" s="261">
-        <v>0.084167365478132347</v>
+        <v>0.084264902452681492</v>
       </c>
       <c r="D100" s="261">
-        <v>0.520495508895716</v>
+        <v>0.52052256310502731</v>
       </c>
       <c r="E100" s="261">
-        <v>0.8093198041267986</v>
+        <v>0.80822243217478285</v>
       </c>
       <c r="F100" s="261">
-        <v>0.11719458414462262</v>
+        <v>0.11690442404104186</v>
       </c>
       <c r="G100" s="261">
         <v>0</v>
@@ -5539,10 +5539,10 @@
         <v>0</v>
       </c>
       <c r="K100" s="261">
-        <v>1.5259740757170539</v>
+        <v>1.5247057246176532</v>
       </c>
       <c r="L100" s="261">
-        <v>-0.084189370638084182</v>
+        <v>-0.0843825385905508</v>
       </c>
     </row>
     <row r="101" outlineLevel="2">
@@ -5550,19 +5550,19 @@
         <v>79</v>
       </c>
       <c r="B101" s="261">
-        <v>3690.7823302726997</v>
+        <v>3684.9345897319</v>
       </c>
       <c r="C101" s="261">
-        <v>0.071309737885794339</v>
+        <v>0.07140407990370766</v>
       </c>
       <c r="D101" s="261">
-        <v>0.49713799755007249</v>
+        <v>0.49721789077222356</v>
       </c>
       <c r="E101" s="261">
-        <v>0.91299950825088916</v>
+        <v>0.91180259796268281</v>
       </c>
       <c r="F101" s="261">
-        <v>0.14907659069652304</v>
+        <v>0.14871982885591115</v>
       </c>
       <c r="G101" s="261">
         <v>0</v>
@@ -5577,10 +5577,10 @@
         <v>0</v>
       </c>
       <c r="K101" s="261">
-        <v>1.626064329089481</v>
+        <v>1.624679515728036</v>
       </c>
       <c r="L101" s="261">
-        <v>-0.06067938219017547</v>
+        <v>-0.060875434510320896</v>
       </c>
     </row>
     <row r="102" outlineLevel="2">
@@ -5588,19 +5588,19 @@
         <v>80</v>
       </c>
       <c r="B102" s="263">
-        <v>9249.0755857100212</v>
+        <v>9235.40310653477</v>
       </c>
       <c r="C102" s="263">
-        <v>0.079036614379033726</v>
+        <v>0.079133422070481685</v>
       </c>
       <c r="D102" s="263">
-        <v>0.51117484875452879</v>
+        <v>0.51122397676384412</v>
       </c>
       <c r="E102" s="263">
-        <v>0.85069250310007272</v>
+        <v>0.84955101646292164</v>
       </c>
       <c r="F102" s="263">
-        <v>0.12991688761641382</v>
+        <v>0.12959880070614405</v>
       </c>
       <c r="G102" s="263">
         <v>0</v>
@@ -5615,10 +5615,10 @@
         <v>0</v>
       </c>
       <c r="K102" s="263">
-        <v>1.5659144281506123</v>
+        <v>1.5645953619924491</v>
       </c>
       <c r="L102" s="263">
-        <v>-0.074807865522072262</v>
+        <v>-0.075003181791357024</v>
       </c>
     </row>
     <row r="103" outlineLevel="2">
@@ -5626,19 +5626,19 @@
         <v>81</v>
       </c>
       <c r="B103" s="261">
-        <v>1126.705482725273</v>
+        <v>1123.1112867081235</v>
       </c>
       <c r="C103" s="261">
-        <v>0.014587623329242313</v>
+        <v>0.014453003595508246</v>
       </c>
       <c r="D103" s="261">
-        <v>0.12689827188388869</v>
+        <v>0.12581687006651499</v>
       </c>
       <c r="E103" s="261">
-        <v>1.7540097963399257</v>
+        <v>1.7552913277437812</v>
       </c>
       <c r="F103" s="261">
-        <v>1.5044638563129744</v>
+        <v>1.508264972489975</v>
       </c>
       <c r="G103" s="261">
         <v>0</v>
@@ -5653,10 +5653,10 @@
         <v>0</v>
       </c>
       <c r="K103" s="261">
-        <v>3.399033864494625</v>
+        <v>3.4029115395518583</v>
       </c>
       <c r="L103" s="261">
-        <v>0.12242542457936487</v>
+        <v>0.12286892797943297</v>
       </c>
     </row>
     <row r="104" outlineLevel="2">
@@ -5702,37 +5702,37 @@
         <v>83</v>
       </c>
       <c r="B105" s="263">
-        <v>110739.68282630245</v>
+        <v>110500.82642871431</v>
       </c>
       <c r="C105" s="263">
-        <v>0.0634768724420861</v>
+        <v>0.063293366880358248</v>
       </c>
       <c r="D105" s="263">
-        <v>0.50166412781134284</v>
+        <v>0.49993883163768493</v>
       </c>
       <c r="E105" s="263">
-        <v>0.76529704522910347</v>
+        <v>0.76774543815438179</v>
       </c>
       <c r="F105" s="263">
-        <v>0.39187065196488824</v>
+        <v>0.39483824722063565</v>
       </c>
       <c r="G105" s="263">
-        <v>0.23082233240251682</v>
+        <v>0.23313149772371655</v>
       </c>
       <c r="H105" s="263">
-        <v>0.15478947081255973</v>
+        <v>0.15761655675385863</v>
       </c>
       <c r="I105" s="263">
-        <v>0.029073566762781351</v>
+        <v>0.029959916824052656</v>
       </c>
       <c r="J105" s="263">
-        <v>0.0025459679326734546</v>
+        <v>0.0025546132460270042</v>
       </c>
       <c r="K105" s="263">
-        <v>2.1330405712117244</v>
+        <v>2.1426239839853127</v>
       </c>
       <c r="L105" s="263">
-        <v>-0.353124446889979</v>
+        <v>-0.35093546253741809</v>
       </c>
     </row>
     <row r="106" outlineLevel="2">
@@ -5930,37 +5930,37 @@
         <v>49</v>
       </c>
       <c r="B111" s="263">
-        <v>137652.98448270303</v>
+        <v>137411.13891592843</v>
       </c>
       <c r="C111" s="263">
-        <v>0.063839036265803159</v>
+        <v>0.063691117746188727</v>
       </c>
       <c r="D111" s="263">
-        <v>0.40672182826790643</v>
+        <v>0.40515891111863805</v>
       </c>
       <c r="E111" s="263">
-        <v>0.64863469339133462</v>
+        <v>0.65041938760728391</v>
       </c>
       <c r="F111" s="263">
-        <v>0.34067323346922374</v>
+        <v>0.34298134517845685</v>
       </c>
       <c r="G111" s="263">
-        <v>0.19402547541077042</v>
+        <v>0.19581267935890862</v>
       </c>
       <c r="H111" s="263">
-        <v>0.14043419868233786</v>
+        <v>0.14271813529388236</v>
       </c>
       <c r="I111" s="263">
-        <v>0.037155812751229207</v>
+        <v>0.037884162184829838</v>
       </c>
       <c r="J111" s="263">
-        <v>0.0064913959422503954</v>
+        <v>0.0064765989161708736</v>
       </c>
       <c r="K111" s="263">
-        <v>1.8326827288723522</v>
+        <v>1.8398877880891247</v>
       </c>
       <c r="L111" s="263">
-        <v>-0.31301880051647413</v>
+        <v>-0.31101699295647867</v>
       </c>
     </row>
     <row r="113">
@@ -6342,37 +6342,37 @@
         <v>97</v>
       </c>
       <c r="B125" s="263">
-        <v>23019.922971081007</v>
+        <v>22778.077404306416</v>
       </c>
       <c r="C125" s="263">
-        <v>0.12739308150783302</v>
+        <v>0.12717553074326918</v>
       </c>
       <c r="D125" s="263">
-        <v>0.75750092501840527</v>
+        <v>0.75179685027473142</v>
       </c>
       <c r="E125" s="263">
-        <v>2.1603319552182163</v>
+        <v>2.1871487113057309</v>
       </c>
       <c r="F125" s="263">
-        <v>0.9437473775068197</v>
+        <v>0.964074425249136</v>
       </c>
       <c r="G125" s="263">
-        <v>0.38815560758813161</v>
+        <v>0.40099827365870461</v>
       </c>
       <c r="H125" s="263">
-        <v>0.025806872380363104</v>
+        <v>0.038367907064286132</v>
       </c>
       <c r="I125" s="263">
-        <v>-0.079571372191696327</v>
+        <v>-0.0764168753597276</v>
       </c>
       <c r="J125" s="263">
-        <v>0.00049850907233325316</v>
+        <v>0.00034561516240055705</v>
       </c>
       <c r="K125" s="263">
-        <v>4.3427536664583837</v>
+        <v>4.412869545562307</v>
       </c>
       <c r="L125" s="263">
-        <v>-2.6870877536948519</v>
+        <v>-2.7002182470834017</v>
       </c>
     </row>
   </sheetData>

--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_KRD.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_KRD.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Cycle: December, 2020        Evaluation Date: December 31, 2020</t>
   </si>
   <si>
-    <t>Printed on: 02/10/21 4:47:48 AM</t>
+    <t>Printed on: 03/14/21 4:46:33 AM</t>
   </si>
   <si>
     <t>Comments:</t>
@@ -3941,37 +3941,37 @@
         <v>18</v>
       </c>
       <c r="B7" s="236">
-        <v>137411.13891592843</v>
+        <v>137447.93757340554</v>
       </c>
       <c r="C7" s="236">
-        <v>0.063691117746188727</v>
+        <v>0.063703367885913784</v>
       </c>
       <c r="D7" s="236">
-        <v>0.40515891111863805</v>
+        <v>0.40531509226593315</v>
       </c>
       <c r="E7" s="236">
-        <v>0.65041938760728391</v>
+        <v>0.65024913461203082</v>
       </c>
       <c r="F7" s="236">
-        <v>0.34298134517845685</v>
+        <v>0.34288908861722128</v>
       </c>
       <c r="G7" s="236">
-        <v>0.19581267935890862</v>
+        <v>0.19589288335381025</v>
       </c>
       <c r="H7" s="236">
-        <v>0.14271813529388236</v>
+        <v>0.14225157030604502</v>
       </c>
       <c r="I7" s="236">
-        <v>0.037884162184829838</v>
+        <v>0.0378414399963746</v>
       </c>
       <c r="J7" s="236">
-        <v>0.0064765989161708736</v>
+        <v>0.0067678846801316386</v>
       </c>
       <c r="K7" s="236">
-        <v>1.8398877880891247</v>
+        <v>1.839653917351062</v>
       </c>
       <c r="L7" s="236">
-        <v>-0.31101699295647867</v>
+        <v>-0.31275201447379336</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
@@ -4031,37 +4031,37 @@
         <v>20</v>
       </c>
       <c r="B10" s="236">
-        <v>22778.077404306416</v>
+        <v>22814.876061783525</v>
       </c>
       <c r="C10" s="236">
-        <v>0.12717553074326918</v>
+        <v>0.12714693603507979</v>
       </c>
       <c r="D10" s="236">
-        <v>0.75179685027473142</v>
+        <v>0.75217866106174236</v>
       </c>
       <c r="E10" s="236">
-        <v>2.1871487113057309</v>
+        <v>2.1836443968897181</v>
       </c>
       <c r="F10" s="236">
-        <v>0.964074425249136</v>
+        <v>0.962516850907053</v>
       </c>
       <c r="G10" s="236">
-        <v>0.40099827365870461</v>
+        <v>0.40115051289380255</v>
       </c>
       <c r="H10" s="236">
-        <v>0.038367907064286132</v>
+        <v>0.035725401058678052</v>
       </c>
       <c r="I10" s="236">
-        <v>-0.0764168753597276</v>
+        <v>-0.076489895786286649</v>
       </c>
       <c r="J10" s="236">
-        <v>0.00034561516240055705</v>
+        <v>0.002110351440580813</v>
       </c>
       <c r="K10" s="236">
-        <v>4.412869545562307</v>
+        <v>4.4073105705909219</v>
       </c>
       <c r="L10" s="236">
-        <v>-2.7002182470834017</v>
+        <v>-2.7068172630260192</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -4188,28 +4188,28 @@
         <v>32</v>
       </c>
       <c r="D40" s="236">
-        <v>12112.361206013666</v>
+        <v>12129.201287108521</v>
       </c>
       <c r="E40" s="236">
-        <v>17166.348141810275</v>
+        <v>17202.813144741591</v>
       </c>
       <c r="F40" s="236">
-        <v>16648.110127091175</v>
+        <v>16648.288453496818</v>
       </c>
       <c r="G40" s="236">
-        <v>4410.4188228167222</v>
+        <v>4410.4069288135788</v>
       </c>
       <c r="H40" s="236">
-        <v>1312.4333842860754</v>
+        <v>1315.0527303054282</v>
       </c>
       <c r="I40" s="236">
-        <v>88.154290500069763</v>
+        <v>82.215463086906652</v>
       </c>
       <c r="J40" s="236">
-        <v>-88.117269628034933</v>
+        <v>-88.343962492518727</v>
       </c>
       <c r="K40" s="236">
-        <v>0.26629064054565454</v>
+        <v>1.6286169478751478</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
@@ -4217,28 +4217,28 @@
         <v>33</v>
       </c>
       <c r="D41" s="236">
-        <v>10.905918091863891</v>
+        <v>10.921080828671117</v>
       </c>
       <c r="E41" s="236">
-        <v>17.162242760757607</v>
+        <v>17.198699042979612</v>
       </c>
       <c r="F41" s="236">
-        <v>41.688585033528646</v>
+        <v>41.689031581242986</v>
       </c>
       <c r="G41" s="236">
-        <v>32.892449555883807</v>
+        <v>32.89236085163278</v>
       </c>
       <c r="H41" s="236">
-        <v>19.557484810211871</v>
+        <v>19.596517511299439</v>
       </c>
       <c r="I41" s="236">
-        <v>1.4912454671328899</v>
+        <v>1.3907824107152669</v>
       </c>
       <c r="J41" s="236">
-        <v>-2.0603278970422902</v>
+        <v>-2.0656283521599756</v>
       </c>
       <c r="K41" s="236">
-        <v>0.0057767403891404775</v>
+        <v>0.035330183899633057</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
@@ -4246,7 +4246,7 @@
         <v>34</v>
       </c>
       <c r="D42" s="236">
-        <v>121.64337456272557</v>
+        <v>121.65817405828085</v>
       </c>
       <c r="E42" s="236">
         <v>0</v>
@@ -4319,28 +4319,28 @@
         <v>44</v>
       </c>
       <c r="D46" s="236">
-        <v>22643.433306137751</v>
+        <v>22678.868214352518</v>
       </c>
       <c r="E46" s="236">
-        <v>22825.521061769981</v>
+        <v>22861.946320486888</v>
       </c>
       <c r="F46" s="236">
-        <v>22778.077404306416</v>
+        <v>22814.876061783525</v>
       </c>
       <c r="G46" s="236">
-        <v>22215.400525888494</v>
+        <v>22251.716244294686</v>
       </c>
       <c r="H46" s="236">
-        <v>21559.921414412103</v>
+        <v>21595.356679148725</v>
       </c>
       <c r="I46" s="236">
-        <v>20082.120876905767</v>
+        <v>20115.195685397281</v>
       </c>
       <c r="J46" s="236">
-        <v>18741.902354677492</v>
+        <v>18774.927152690692</v>
       </c>
       <c r="K46" s="236">
-        <v>16221.476392997469</v>
+        <v>16253.765342519173</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
@@ -4348,28 +4348,28 @@
         <v>45</v>
       </c>
       <c r="D47" s="236">
-        <v>23800.508075220845</v>
+        <v>23837.710979557643</v>
       </c>
       <c r="E47" s="236">
-        <v>23284.636164342915</v>
+        <v>23321.625951216003</v>
       </c>
       <c r="F47" s="236">
-        <v>22778.077404306423</v>
+        <v>22814.876061783525</v>
       </c>
       <c r="G47" s="236">
-        <v>22280.659152822634</v>
+        <v>22317.284532379726</v>
       </c>
       <c r="H47" s="236">
-        <v>21792.207588410594</v>
+        <v>21828.674075016424</v>
       </c>
       <c r="I47" s="236">
-        <v>20841.507354443936</v>
+        <v>20877.688092287382</v>
       </c>
       <c r="J47" s="236">
-        <v>19924.586354204359</v>
+        <v>19960.509894329094</v>
       </c>
       <c r="K47" s="236">
-        <v>19040.070547549432</v>
+        <v>19075.753131683963</v>
       </c>
     </row>
     <row r="48" hidden="1" ht="15" customHeight="1">
@@ -4390,28 +4390,28 @@
         <v>47</v>
       </c>
       <c r="D49" s="236">
-        <v>5.109979363286115</v>
+        <v>5.1097909924435347</v>
       </c>
       <c r="E49" s="236">
-        <v>2.0114112678106486</v>
+        <v>2.01067583785371</v>
       </c>
       <c r="F49" s="236">
-        <v>3.194280836365863E-14</v>
+        <v>0</v>
       </c>
       <c r="G49" s="236">
-        <v>0.29375399672894686</v>
+        <v>0.29466620626106355</v>
       </c>
       <c r="H49" s="236">
-        <v>1.0773980550931659</v>
+        <v>1.0804053822041204</v>
       </c>
       <c r="I49" s="236">
-        <v>3.7814057698032109</v>
+        <v>3.7906288301417659</v>
       </c>
       <c r="J49" s="236">
-        <v>6.3103732862619486</v>
+        <v>6.3147128721002384</v>
       </c>
       <c r="K49" s="236">
-        <v>17.375694334263571</v>
+        <v>17.362055681846151</v>
       </c>
     </row>
     <row r="50" hidden="1" ht="15" customHeight="1">
@@ -4714,37 +4714,37 @@
         <v>57</v>
       </c>
       <c r="B79" s="261">
-        <v>1299.1592036728609</v>
+        <v>1328.4593318477528</v>
       </c>
       <c r="C79" s="261">
-        <v>0.038007115225326155</v>
+        <v>0.038784790294100348</v>
       </c>
       <c r="D79" s="261">
-        <v>0.29719043644034776</v>
+        <v>0.30640785135961035</v>
       </c>
       <c r="E79" s="261">
-        <v>0.428561123876085</v>
+        <v>0.4277044475345364</v>
       </c>
       <c r="F79" s="261">
-        <v>0.59429007751877061</v>
+        <v>0.59353498580061015</v>
       </c>
       <c r="G79" s="261">
-        <v>0.88181657538671165</v>
+        <v>0.88202978661770781</v>
       </c>
       <c r="H79" s="261">
-        <v>1.6890168105198875</v>
+        <v>1.6173403075625872</v>
       </c>
       <c r="I79" s="261">
-        <v>1.4587206083344468</v>
+        <v>1.426383202528591</v>
       </c>
       <c r="J79" s="261">
-        <v>0.46774094873593214</v>
+        <v>0.4876836104789794</v>
       </c>
       <c r="K79" s="261">
-        <v>5.8488021685474019</v>
+        <v>5.77338032691752</v>
       </c>
       <c r="L79" s="261">
-        <v>-0.80837347511402213</v>
+        <v>-0.95902600016292494</v>
       </c>
     </row>
     <row r="80" outlineLevel="2">
@@ -4752,37 +4752,37 @@
         <v>58</v>
       </c>
       <c r="B80" s="263">
-        <v>1299.1592036728609</v>
+        <v>1328.4593318477528</v>
       </c>
       <c r="C80" s="263">
-        <v>0.038007115225326155</v>
+        <v>0.038784790294100348</v>
       </c>
       <c r="D80" s="263">
-        <v>0.29719043644034776</v>
+        <v>0.30640785135961035</v>
       </c>
       <c r="E80" s="263">
-        <v>0.428561123876085</v>
+        <v>0.4277044475345364</v>
       </c>
       <c r="F80" s="263">
-        <v>0.59429007751877061</v>
+        <v>0.59353498580061015</v>
       </c>
       <c r="G80" s="263">
-        <v>0.88181657538671165</v>
+        <v>0.88202978661770781</v>
       </c>
       <c r="H80" s="263">
-        <v>1.6890168105198875</v>
+        <v>1.6173403075625872</v>
       </c>
       <c r="I80" s="263">
-        <v>1.4587206083344468</v>
+        <v>1.426383202528591</v>
       </c>
       <c r="J80" s="263">
-        <v>0.46774094873593214</v>
+        <v>0.4876836104789794</v>
       </c>
       <c r="K80" s="263">
-        <v>5.8488021685474019</v>
+        <v>5.77338032691752</v>
       </c>
       <c r="L80" s="263">
-        <v>-0.80837347511402213</v>
+        <v>-0.95902600016292494</v>
       </c>
     </row>
     <row r="81" outlineLevel="2">
@@ -4866,37 +4866,37 @@
         <v>61</v>
       </c>
       <c r="B83" s="263">
-        <v>1532.711394013689</v>
+        <v>1562.0115221885806</v>
       </c>
       <c r="C83" s="263">
-        <v>0.05111608821654523</v>
+        <v>0.0515315877850624</v>
       </c>
       <c r="D83" s="263">
-        <v>0.25393698541956738</v>
+        <v>0.26258755702674091</v>
       </c>
       <c r="E83" s="263">
-        <v>0.51275987862598016</v>
+        <v>0.51045189693983739</v>
       </c>
       <c r="F83" s="263">
-        <v>0.6052116660673843</v>
+        <v>0.60436460920196178</v>
       </c>
       <c r="G83" s="263">
-        <v>0.74744673024509256</v>
+        <v>0.75014856443454114</v>
       </c>
       <c r="H83" s="263">
-        <v>1.4316470426952284</v>
+        <v>1.3755153491726448</v>
       </c>
       <c r="I83" s="263">
-        <v>1.2364430194142901</v>
+        <v>1.2131101783007341</v>
       </c>
       <c r="J83" s="263">
-        <v>0.39646730679913955</v>
+        <v>0.41476508599773826</v>
       </c>
       <c r="K83" s="263">
-        <v>5.22946954732463</v>
+        <v>5.1769421984620223</v>
       </c>
       <c r="L83" s="263">
-        <v>-0.69422852849874039</v>
+        <v>-0.824496590826691</v>
       </c>
     </row>
     <row r="84" outlineLevel="1">
@@ -4904,37 +4904,37 @@
         <v>62</v>
       </c>
       <c r="B84" s="263">
-        <v>5349.2011419028286</v>
+        <v>5378.5012700777206</v>
       </c>
       <c r="C84" s="263">
-        <v>0.10317635413218178</v>
+        <v>0.10301341704128746</v>
       </c>
       <c r="D84" s="263">
-        <v>0.080328510292920222</v>
+        <v>0.083786544820322911</v>
       </c>
       <c r="E84" s="263">
-        <v>0.84841891354988774</v>
+        <v>0.84592008607774372</v>
       </c>
       <c r="F84" s="263">
-        <v>0.65421070389760794</v>
+        <v>0.65369777463822232</v>
       </c>
       <c r="G84" s="263">
-        <v>0.2141665810415373</v>
+        <v>0.21785635852107138</v>
       </c>
       <c r="H84" s="263">
-        <v>0.41021110934785116</v>
+        <v>0.3994738899306558</v>
       </c>
       <c r="I84" s="263">
-        <v>0.35427912572955239</v>
+        <v>0.35230856720854936</v>
       </c>
       <c r="J84" s="263">
-        <v>0.11360013249912293</v>
+        <v>0.12045508791340084</v>
       </c>
       <c r="K84" s="263">
-        <v>2.7767448781998256</v>
+        <v>2.7748515669483775</v>
       </c>
       <c r="L84" s="263">
-        <v>-0.24075785261565658</v>
+        <v>-0.28106033696766369</v>
       </c>
     </row>
     <row r="85" outlineLevel="2">
@@ -4942,16 +4942,16 @@
         <v>63</v>
       </c>
       <c r="B85" s="261">
-        <v>2927.7695119141667</v>
+        <v>2928.7491257414185</v>
       </c>
       <c r="C85" s="261">
-        <v>0.01273713140271463</v>
+        <v>0.012734445595616735</v>
       </c>
       <c r="D85" s="261">
-        <v>0.11079857772279728</v>
+        <v>0.11079065462389337</v>
       </c>
       <c r="E85" s="261">
-        <v>2.5517433072286475</v>
+        <v>2.5519775794104249</v>
       </c>
       <c r="F85" s="261">
         <v>0</v>
@@ -4969,10 +4969,10 @@
         <v>0</v>
       </c>
       <c r="K85" s="261">
-        <v>2.6744656722210918</v>
+        <v>2.674689496431939</v>
       </c>
       <c r="L85" s="261">
-        <v>0.070689332664786289</v>
+        <v>0.070706846647285465</v>
       </c>
     </row>
     <row r="86" outlineLevel="2">
@@ -4980,16 +4980,16 @@
         <v>64</v>
       </c>
       <c r="B86" s="261">
-        <v>1973.777199043257</v>
+        <v>1974.4376128593856</v>
       </c>
       <c r="C86" s="261">
-        <v>0.012737131403258268</v>
+        <v>0.012734445596671263</v>
       </c>
       <c r="D86" s="261">
-        <v>0.1107985777224634</v>
+        <v>0.11079065462254951</v>
       </c>
       <c r="E86" s="261">
-        <v>2.5517433072265394</v>
+        <v>2.5519775794120263</v>
       </c>
       <c r="F86" s="261">
         <v>0</v>
@@ -5007,10 +5007,10 @@
         <v>0</v>
       </c>
       <c r="K86" s="261">
-        <v>2.6744656722216806</v>
+        <v>2.6746894964319003</v>
       </c>
       <c r="L86" s="261">
-        <v>0.070689332699979748</v>
+        <v>0.070706846644141161</v>
       </c>
     </row>
     <row r="87" outlineLevel="2">
@@ -5018,16 +5018,16 @@
         <v>65</v>
       </c>
       <c r="B87" s="263">
-        <v>4901.5467109574238</v>
+        <v>4903.1867386008043</v>
       </c>
       <c r="C87" s="263">
-        <v>0.012737131402840768</v>
+        <v>0.012734445596041377</v>
       </c>
       <c r="D87" s="263">
-        <v>0.11079857772257006</v>
+        <v>0.11079065462328265</v>
       </c>
       <c r="E87" s="263">
-        <v>2.551743307227845</v>
+        <v>2.5519775794110231</v>
       </c>
       <c r="F87" s="263">
         <v>0</v>
@@ -5045,10 +5045,10 @@
         <v>0</v>
       </c>
       <c r="K87" s="263">
-        <v>2.6744656722213982</v>
+        <v>2.6746894964320393</v>
       </c>
       <c r="L87" s="263">
-        <v>0.070689332678494268</v>
+        <v>0.070706846646483024</v>
       </c>
     </row>
     <row r="88" outlineLevel="2">
@@ -5056,16 +5056,16 @@
         <v>66</v>
       </c>
       <c r="B88" s="261">
-        <v>6372.6182918184195</v>
+        <v>6372.80782615451</v>
       </c>
       <c r="C88" s="261">
-        <v>0.073432808425932666</v>
+        <v>0.073432081131441423</v>
       </c>
       <c r="D88" s="261">
-        <v>0.63824380137545311</v>
+        <v>0.63825174639215476</v>
       </c>
       <c r="E88" s="261">
-        <v>0.77869312256795609</v>
+        <v>0.7787152364484986</v>
       </c>
       <c r="F88" s="261">
         <v>0</v>
@@ -5083,10 +5083,10 @@
         <v>0</v>
       </c>
       <c r="K88" s="261">
-        <v>1.485680780884902</v>
+        <v>1.4857101491468359</v>
       </c>
       <c r="L88" s="261">
-        <v>-0.0748353980355793</v>
+        <v>-0.074833124991184316</v>
       </c>
     </row>
     <row r="89" outlineLevel="2">
@@ -5132,37 +5132,37 @@
         <v>68</v>
       </c>
       <c r="B90" s="261">
-        <v>64570.0672768656</v>
+        <v>64579.2251706868</v>
       </c>
       <c r="C90" s="261">
-        <v>0.070368532769504236</v>
+        <v>0.070387933754828491</v>
       </c>
       <c r="D90" s="261">
-        <v>0.53002756626698255</v>
+        <v>0.53019418412966457</v>
       </c>
       <c r="E90" s="261">
-        <v>0.5069610086286942</v>
+        <v>0.50675009523270342</v>
       </c>
       <c r="F90" s="261">
-        <v>0.44213143408211664</v>
+        <v>0.44190476675930945</v>
       </c>
       <c r="G90" s="261">
-        <v>0.39678383259222316</v>
+        <v>0.39660537322032086</v>
       </c>
       <c r="H90" s="261">
-        <v>0.26926582481787575</v>
+        <v>0.26902408210345558</v>
       </c>
       <c r="I90" s="261">
-        <v>0.051271366260185552</v>
+        <v>0.051198133724305109</v>
       </c>
       <c r="J90" s="261">
-        <v>0.004371791556174778</v>
+        <v>0.00437236505939628</v>
       </c>
       <c r="K90" s="261">
-        <v>2.2625301659271142</v>
+        <v>2.2617815927512592</v>
       </c>
       <c r="L90" s="261">
-        <v>-0.58771468811121574</v>
+        <v>-0.5880292623774942</v>
       </c>
     </row>
     <row r="91" outlineLevel="2">
@@ -5208,37 +5208,37 @@
         <v>70</v>
       </c>
       <c r="B92" s="263">
-        <v>65328.215386677992</v>
+        <v>65337.373280499189</v>
       </c>
       <c r="C92" s="263">
-        <v>0.070379659790899537</v>
+        <v>0.070398834095484614</v>
       </c>
       <c r="D92" s="263">
-        <v>0.528128225323504</v>
+        <v>0.52829317603849</v>
       </c>
       <c r="E92" s="263">
-        <v>0.50378977569129813</v>
+        <v>0.50358175413807937</v>
       </c>
       <c r="F92" s="263">
-        <v>0.438250413316392</v>
+        <v>0.43802692012458611</v>
       </c>
       <c r="G92" s="263">
-        <v>0.39275222129737658</v>
+        <v>0.3925763977784118</v>
       </c>
       <c r="H92" s="263">
-        <v>0.266264007404057</v>
+        <v>0.26602549051731489</v>
       </c>
       <c r="I92" s="263">
-        <v>0.050676350933592879</v>
+        <v>0.0506040515572372</v>
       </c>
       <c r="J92" s="263">
-        <v>0.0043210559668863009</v>
+        <v>0.0043216299267284592</v>
       </c>
       <c r="K92" s="263">
-        <v>2.2459599398899583</v>
+        <v>2.24522237538606</v>
       </c>
       <c r="L92" s="263">
-        <v>-0.58217804616612112</v>
+        <v>-0.58248974627482508</v>
       </c>
     </row>
     <row r="93" outlineLevel="2">
@@ -5246,37 +5246,37 @@
         <v>71</v>
       </c>
       <c r="B93" s="263">
-        <v>67422.302544692546</v>
+        <v>67431.460438513735</v>
       </c>
       <c r="C93" s="263">
-        <v>0.070409093654807284</v>
+        <v>0.07042766850304169</v>
       </c>
       <c r="D93" s="263">
-        <v>0.52310397480436044</v>
+        <v>0.52326448531261127</v>
       </c>
       <c r="E93" s="263">
-        <v>0.49540104022638937</v>
+        <v>0.49520061806967292</v>
       </c>
       <c r="F93" s="263">
-        <v>0.42798410453976438</v>
+        <v>0.42776894621101685</v>
       </c>
       <c r="G93" s="263">
-        <v>0.38208756142599648</v>
+        <v>0.38191864648644691</v>
       </c>
       <c r="H93" s="263">
-        <v>0.25832342003741748</v>
+        <v>0.25809338871822857</v>
       </c>
       <c r="I93" s="263">
-        <v>0.049102380723442744</v>
+        <v>0.049032540369076283</v>
       </c>
       <c r="J93" s="263">
-        <v>0.0041868471448176289</v>
+        <v>0.0041874215071563605</v>
       </c>
       <c r="K93" s="263">
-        <v>2.2021273846768135</v>
+        <v>2.2014186781901284</v>
       </c>
       <c r="L93" s="263">
-        <v>-0.56753218899544233</v>
+        <v>-0.56783619830137733</v>
       </c>
     </row>
     <row r="94" outlineLevel="2">
@@ -5284,16 +5284,16 @@
         <v>72</v>
       </c>
       <c r="B94" s="261">
-        <v>8661.133380752728</v>
+        <v>8661.3909800768924</v>
       </c>
       <c r="C94" s="261">
-        <v>0.073432808425971149</v>
+        <v>0.073432081130835242</v>
       </c>
       <c r="D94" s="261">
-        <v>0.638243801375262</v>
+        <v>0.63825174639159221</v>
       </c>
       <c r="E94" s="261">
-        <v>0.77869312256792222</v>
+        <v>0.77871523644867391</v>
       </c>
       <c r="F94" s="261">
         <v>0</v>
@@ -5311,10 +5311,10 @@
         <v>0</v>
       </c>
       <c r="K94" s="261">
-        <v>1.4856807808850041</v>
+        <v>1.4857101491462923</v>
       </c>
       <c r="L94" s="261">
-        <v>-0.0748353980275395</v>
+        <v>-0.074833124999501385</v>
       </c>
     </row>
     <row r="95" outlineLevel="2">
@@ -5322,16 +5322,16 @@
         <v>73</v>
       </c>
       <c r="B95" s="261">
-        <v>562.74961203302394</v>
+        <v>562.76634932517265</v>
       </c>
       <c r="C95" s="261">
-        <v>0.073432808426510843</v>
+        <v>0.0734320811311513</v>
       </c>
       <c r="D95" s="261">
-        <v>0.63824380137536885</v>
+        <v>0.63825174639199511</v>
       </c>
       <c r="E95" s="261">
-        <v>0.77869312256819767</v>
+        <v>0.77871523644854923</v>
       </c>
       <c r="F95" s="261">
         <v>0</v>
@@ -5349,10 +5349,10 @@
         <v>0</v>
       </c>
       <c r="K95" s="261">
-        <v>1.4856807808840939</v>
+        <v>1.4857101491473577</v>
       </c>
       <c r="L95" s="261">
-        <v>-0.074835398033567466</v>
+        <v>-0.0748331249941147</v>
       </c>
     </row>
     <row r="96" outlineLevel="2">
@@ -5360,16 +5360,16 @@
         <v>74</v>
       </c>
       <c r="B96" s="263">
-        <v>9223.8829927857514</v>
+        <v>9224.1573294020654</v>
       </c>
       <c r="C96" s="263">
-        <v>0.073432808426096521</v>
+        <v>0.07343208113099009</v>
       </c>
       <c r="D96" s="263">
-        <v>0.63824380137531789</v>
+        <v>0.638251746391623</v>
       </c>
       <c r="E96" s="263">
-        <v>0.77869312256788359</v>
+        <v>0.77871523644867247</v>
       </c>
       <c r="F96" s="263">
         <v>0</v>
@@ -5387,10 +5387,10 @@
         <v>0</v>
       </c>
       <c r="K96" s="263">
-        <v>1.4856807808849364</v>
+        <v>1.4857101491464064</v>
       </c>
       <c r="L96" s="263">
-        <v>-0.074835398025688726</v>
+        <v>-0.074833125000898226</v>
       </c>
     </row>
     <row r="97" outlineLevel="2">
@@ -5398,37 +5398,37 @@
         <v>75</v>
       </c>
       <c r="B97" s="263">
-        <v>87920.350540254149</v>
+        <v>87931.612332671109</v>
       </c>
       <c r="C97" s="263">
-        <v>0.067730277611296713</v>
+        <v>0.067743526587145234</v>
       </c>
       <c r="D97" s="263">
-        <v>0.52054306929659966</v>
+        <v>0.52066037165888457</v>
       </c>
       <c r="E97" s="263">
-        <v>0.66029600382108222</v>
+        <v>0.66017802221609756</v>
       </c>
       <c r="F97" s="263">
-        <v>0.32820244236159873</v>
+        <v>0.32803998480223689</v>
       </c>
       <c r="G97" s="263">
-        <v>0.29300637459620466</v>
+        <v>0.29287910704789383</v>
       </c>
       <c r="H97" s="263">
-        <v>0.1980970238758944</v>
+        <v>0.19792215415026074</v>
       </c>
       <c r="I97" s="263">
-        <v>0.037654485548003026</v>
+        <v>0.037601218929042626</v>
       </c>
       <c r="J97" s="263">
-        <v>0.003210711435570948</v>
+        <v>0.0032111767339251095</v>
       </c>
       <c r="K97" s="263">
-        <v>2.1013671836292009</v>
+        <v>2.1008593280919832</v>
       </c>
       <c r="L97" s="263">
-        <v>-0.44455020966096148</v>
+        <v>-0.44478321133868753</v>
       </c>
     </row>
     <row r="98" outlineLevel="2">
@@ -5436,16 +5436,16 @@
         <v>76</v>
       </c>
       <c r="B98" s="261">
-        <v>2189.6996655818207</v>
+        <v>2189.7642805014375</v>
       </c>
       <c r="C98" s="261">
-        <v>0.07342793329713948</v>
+        <v>0.073427211680606883</v>
       </c>
       <c r="D98" s="261">
-        <v>0.63828033005547125</v>
+        <v>0.63828821197131136</v>
       </c>
       <c r="E98" s="261">
-        <v>0.77878382961337322</v>
+        <v>0.77880577004369833</v>
       </c>
       <c r="F98" s="261">
         <v>0</v>
@@ -5463,10 +5463,10 @@
         <v>0</v>
       </c>
       <c r="K98" s="261">
-        <v>1.4858033835043325</v>
+        <v>1.4858325206126586</v>
       </c>
       <c r="L98" s="261">
-        <v>-0.074824516977248359</v>
+        <v>-0.0748222617183937</v>
       </c>
     </row>
     <row r="99" outlineLevel="2">
@@ -5474,19 +5474,19 @@
         <v>77</v>
       </c>
       <c r="B99" s="261">
-        <v>10062.261829635458</v>
+        <v>10059.765081261252</v>
       </c>
       <c r="C99" s="261">
-        <v>0.013044094430949765</v>
+        <v>0.01304614896313345</v>
       </c>
       <c r="D99" s="261">
-        <v>0.31971110622370891</v>
+        <v>0.319768550135119</v>
       </c>
       <c r="E99" s="261">
-        <v>1.516598678855769</v>
+        <v>1.5164317998007311</v>
       </c>
       <c r="F99" s="261">
-        <v>1.1809901653876682</v>
+        <v>1.1808062474710652</v>
       </c>
       <c r="G99" s="261">
         <v>0</v>
@@ -5501,10 +5501,10 @@
         <v>0</v>
       </c>
       <c r="K99" s="261">
-        <v>3.0295177841416412</v>
+        <v>3.02922636079779</v>
       </c>
       <c r="L99" s="261">
-        <v>0.10185423595260487</v>
+        <v>0.10183109505016461</v>
       </c>
     </row>
     <row r="100" outlineLevel="2">
@@ -5512,19 +5512,19 @@
         <v>78</v>
       </c>
       <c r="B100" s="261">
-        <v>5550.4685168028691</v>
+        <v>5550.7979272724269</v>
       </c>
       <c r="C100" s="261">
-        <v>0.084264902452681492</v>
+        <v>0.0842630834239167</v>
       </c>
       <c r="D100" s="261">
-        <v>0.52052256310502731</v>
+        <v>0.52053196612761887</v>
       </c>
       <c r="E100" s="261">
-        <v>0.80822243217478285</v>
+        <v>0.80827652912773773</v>
       </c>
       <c r="F100" s="261">
-        <v>0.11690442404104186</v>
+        <v>0.11691609028608037</v>
       </c>
       <c r="G100" s="261">
         <v>0</v>
@@ -5539,10 +5539,10 @@
         <v>0</v>
       </c>
       <c r="K100" s="261">
-        <v>1.5247057246176532</v>
+        <v>1.524779162446295</v>
       </c>
       <c r="L100" s="261">
-        <v>-0.0843825385905508</v>
+        <v>-0.0843765169682345</v>
       </c>
     </row>
     <row r="101" outlineLevel="2">
@@ -5550,19 +5550,19 @@
         <v>79</v>
       </c>
       <c r="B101" s="261">
-        <v>3684.9345897319</v>
+        <v>3683.6362379118355</v>
       </c>
       <c r="C101" s="261">
-        <v>0.07140407990370766</v>
+        <v>0.071414482277757041</v>
       </c>
       <c r="D101" s="261">
-        <v>0.49721789077222356</v>
+        <v>0.4971794896917916</v>
       </c>
       <c r="E101" s="261">
-        <v>0.91180259796268281</v>
+        <v>0.91148524363346317</v>
       </c>
       <c r="F101" s="261">
-        <v>0.14871982885591115</v>
+        <v>0.14864303955555083</v>
       </c>
       <c r="G101" s="261">
         <v>0</v>
@@ -5577,10 +5577,10 @@
         <v>0</v>
       </c>
       <c r="K101" s="261">
-        <v>1.624679515728036</v>
+        <v>1.62425682297332</v>
       </c>
       <c r="L101" s="261">
-        <v>-0.060875434510320896</v>
+        <v>-0.060910807884102573</v>
       </c>
     </row>
     <row r="102" outlineLevel="2">
@@ -5588,19 +5588,19 @@
         <v>80</v>
       </c>
       <c r="B102" s="263">
-        <v>9235.40310653477</v>
+        <v>9234.43416518426</v>
       </c>
       <c r="C102" s="263">
-        <v>0.079133422070481685</v>
+        <v>0.079137747973886716</v>
       </c>
       <c r="D102" s="263">
-        <v>0.51122397676384412</v>
+        <v>0.51121661156377862</v>
       </c>
       <c r="E102" s="263">
-        <v>0.84955101646292164</v>
+        <v>0.84944671389712312</v>
       </c>
       <c r="F102" s="263">
-        <v>0.12959880070614405</v>
+        <v>0.12957204060821984</v>
       </c>
       <c r="G102" s="263">
         <v>0</v>
@@ -5615,10 +5615,10 @@
         <v>0</v>
       </c>
       <c r="K102" s="263">
-        <v>1.5645953619924491</v>
+        <v>1.5644610215212527</v>
       </c>
       <c r="L102" s="263">
-        <v>-0.075003181791357024</v>
+        <v>-0.0750159936488804</v>
       </c>
     </row>
     <row r="103" outlineLevel="2">
@@ -5626,19 +5626,19 @@
         <v>81</v>
       </c>
       <c r="B103" s="261">
-        <v>1123.1112867081235</v>
+        <v>1122.749098398444</v>
       </c>
       <c r="C103" s="261">
-        <v>0.014453003595508246</v>
+        <v>0.014456309146206367</v>
       </c>
       <c r="D103" s="261">
-        <v>0.12581687006651499</v>
+        <v>0.12583233289309648</v>
       </c>
       <c r="E103" s="261">
-        <v>1.7552913277437812</v>
+        <v>1.7551506440272016</v>
       </c>
       <c r="F103" s="261">
-        <v>1.508264972489975</v>
+        <v>1.5081205856369451</v>
       </c>
       <c r="G103" s="261">
         <v>0</v>
@@ -5653,10 +5653,10 @@
         <v>0</v>
       </c>
       <c r="K103" s="261">
-        <v>3.4029115395518583</v>
+        <v>3.4026450337876208</v>
       </c>
       <c r="L103" s="261">
-        <v>0.12286892797943297</v>
+        <v>0.12284473681439821</v>
       </c>
     </row>
     <row r="104" outlineLevel="2">
@@ -5702,37 +5702,37 @@
         <v>83</v>
       </c>
       <c r="B105" s="263">
-        <v>110500.82642871431</v>
+        <v>110508.3249580165</v>
       </c>
       <c r="C105" s="263">
-        <v>0.063293366880358248</v>
+        <v>0.063306091476997492</v>
       </c>
       <c r="D105" s="263">
-        <v>0.49993883163768493</v>
+        <v>0.50004447612971559</v>
       </c>
       <c r="E105" s="263">
-        <v>0.76774543815438179</v>
+        <v>0.76759484171146986</v>
       </c>
       <c r="F105" s="263">
-        <v>0.39483824722063565</v>
+        <v>0.39466242703706339</v>
       </c>
       <c r="G105" s="263">
-        <v>0.23313149772371655</v>
+        <v>0.23304427165162056</v>
       </c>
       <c r="H105" s="263">
-        <v>0.15761655675385863</v>
+        <v>0.1574869055105102</v>
       </c>
       <c r="I105" s="263">
-        <v>0.029959916824052656</v>
+        <v>0.029919336912948319</v>
       </c>
       <c r="J105" s="263">
-        <v>0.0025546132460270042</v>
+        <v>0.0025551373419737317</v>
       </c>
       <c r="K105" s="263">
-        <v>2.1426239839853127</v>
+        <v>2.1421563089688229</v>
       </c>
       <c r="L105" s="263">
-        <v>-0.35093546253741809</v>
+        <v>-0.35114782153745405</v>
       </c>
     </row>
     <row r="106" outlineLevel="2">
@@ -5930,37 +5930,37 @@
         <v>49</v>
       </c>
       <c r="B111" s="263">
-        <v>137411.13891592843</v>
+        <v>137447.93757340554</v>
       </c>
       <c r="C111" s="263">
-        <v>0.063691117746188727</v>
+        <v>0.063703367885913784</v>
       </c>
       <c r="D111" s="263">
-        <v>0.40515891111863805</v>
+        <v>0.40531509226593315</v>
       </c>
       <c r="E111" s="263">
-        <v>0.65041938760728391</v>
+        <v>0.65024913461203082</v>
       </c>
       <c r="F111" s="263">
-        <v>0.34298134517845685</v>
+        <v>0.34288908861722128</v>
       </c>
       <c r="G111" s="263">
-        <v>0.19581267935890862</v>
+        <v>0.19589288335381025</v>
       </c>
       <c r="H111" s="263">
-        <v>0.14271813529388236</v>
+        <v>0.14225157030604502</v>
       </c>
       <c r="I111" s="263">
-        <v>0.037884162184829838</v>
+        <v>0.0378414399963746</v>
       </c>
       <c r="J111" s="263">
-        <v>0.0064765989161708736</v>
+        <v>0.0067678846801316386</v>
       </c>
       <c r="K111" s="263">
-        <v>1.8398877880891247</v>
+        <v>1.839653917351062</v>
       </c>
       <c r="L111" s="263">
-        <v>-0.31101699295647867</v>
+        <v>-0.31275201447379336</v>
       </c>
     </row>
     <row r="113">
@@ -6342,37 +6342,37 @@
         <v>97</v>
       </c>
       <c r="B125" s="263">
-        <v>22778.077404306416</v>
+        <v>22814.876061783525</v>
       </c>
       <c r="C125" s="263">
-        <v>0.12717553074326918</v>
+        <v>0.12714693603507979</v>
       </c>
       <c r="D125" s="263">
-        <v>0.75179685027473142</v>
+        <v>0.75217866106174236</v>
       </c>
       <c r="E125" s="263">
-        <v>2.1871487113057309</v>
+        <v>2.1836443968897181</v>
       </c>
       <c r="F125" s="263">
-        <v>0.964074425249136</v>
+        <v>0.962516850907053</v>
       </c>
       <c r="G125" s="263">
-        <v>0.40099827365870461</v>
+        <v>0.40115051289380255</v>
       </c>
       <c r="H125" s="263">
-        <v>0.038367907064286132</v>
+        <v>0.035725401058678052</v>
       </c>
       <c r="I125" s="263">
-        <v>-0.0764168753597276</v>
+        <v>-0.076489895786286649</v>
       </c>
       <c r="J125" s="263">
-        <v>0.00034561516240055705</v>
+        <v>0.002110351440580813</v>
       </c>
       <c r="K125" s="263">
-        <v>4.412869545562307</v>
+        <v>4.4073105705909219</v>
       </c>
       <c r="L125" s="263">
-        <v>-2.7002182470834017</v>
+        <v>-2.7068172630260192</v>
       </c>
     </row>
   </sheetData>

--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_KRD.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_KRD.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Cycle: December, 2020        Evaluation Date: December 31, 2020</t>
   </si>
   <si>
-    <t>Printed on: 03/14/21 4:46:33 AM</t>
+    <t>Printed on: 04/08/21 4:50:56 AM</t>
   </si>
   <si>
     <t>Comments:</t>
@@ -3941,37 +3941,37 @@
         <v>18</v>
       </c>
       <c r="B7" s="236">
-        <v>137447.93757340554</v>
+        <v>137447.93754938318</v>
       </c>
       <c r="C7" s="236">
-        <v>0.063703367885913784</v>
+        <v>0.0637046735860423</v>
       </c>
       <c r="D7" s="236">
-        <v>0.40531509226593315</v>
+        <v>0.40531421918726462</v>
       </c>
       <c r="E7" s="236">
-        <v>0.65024913461203082</v>
+        <v>0.65024888121014757</v>
       </c>
       <c r="F7" s="236">
-        <v>0.34288908861722128</v>
+        <v>0.34288910758486529</v>
       </c>
       <c r="G7" s="236">
-        <v>0.19589288335381025</v>
+        <v>0.19589301469392312</v>
       </c>
       <c r="H7" s="236">
-        <v>0.14225157030604502</v>
+        <v>0.14225168231478907</v>
       </c>
       <c r="I7" s="236">
-        <v>0.0378414399963746</v>
+        <v>0.037841440002988308</v>
       </c>
       <c r="J7" s="236">
-        <v>0.0067678846801316386</v>
+        <v>0.006767884681314491</v>
       </c>
       <c r="K7" s="236">
-        <v>1.839653917351062</v>
+        <v>1.8396537051179505</v>
       </c>
       <c r="L7" s="236">
-        <v>-0.31275201447379336</v>
+        <v>-0.31275625400063167</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
@@ -4031,37 +4031,37 @@
         <v>20</v>
       </c>
       <c r="B10" s="236">
-        <v>22814.876061783525</v>
+        <v>22814.876037761165</v>
       </c>
       <c r="C10" s="236">
-        <v>0.12714693603507979</v>
+        <v>0.12715480227570258</v>
       </c>
       <c r="D10" s="236">
-        <v>0.75217866106174236</v>
+        <v>0.75217340157552015</v>
       </c>
       <c r="E10" s="236">
-        <v>2.1836443968897181</v>
+        <v>2.1836428718883258</v>
       </c>
       <c r="F10" s="236">
-        <v>0.962516850907053</v>
+        <v>0.96251696582957136</v>
       </c>
       <c r="G10" s="236">
-        <v>0.40115051289380255</v>
+        <v>0.4011513043667238</v>
       </c>
       <c r="H10" s="236">
-        <v>0.035725401058678052</v>
+        <v>0.035726075741403782</v>
       </c>
       <c r="I10" s="236">
-        <v>-0.076489895786286649</v>
+        <v>-0.076489895866745067</v>
       </c>
       <c r="J10" s="236">
-        <v>0.002110351440580813</v>
+        <v>0.0021103514428028555</v>
       </c>
       <c r="K10" s="236">
-        <v>4.4073105705909219</v>
+        <v>4.4073092946991252</v>
       </c>
       <c r="L10" s="236">
-        <v>-2.7068172630260192</v>
+        <v>-2.7068428065060739</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -4188,28 +4188,28 @@
         <v>32</v>
       </c>
       <c r="D40" s="236">
-        <v>12129.201287108521</v>
+        <v>12129.951675556327</v>
       </c>
       <c r="E40" s="236">
-        <v>17202.813144741591</v>
+        <v>17202.692838772109</v>
       </c>
       <c r="F40" s="236">
-        <v>16648.288453496818</v>
+        <v>16648.27680922861</v>
       </c>
       <c r="G40" s="236">
-        <v>4410.4069288135788</v>
+        <v>4410.4074507632013</v>
       </c>
       <c r="H40" s="236">
-        <v>1315.0527303054282</v>
+        <v>1315.0553235295115</v>
       </c>
       <c r="I40" s="236">
-        <v>82.215463086906652</v>
+        <v>82.2170156589814</v>
       </c>
       <c r="J40" s="236">
-        <v>-88.343962492518727</v>
+        <v>-88.343962492426641</v>
       </c>
       <c r="K40" s="236">
-        <v>1.6286169478751478</v>
+        <v>1.628616947875148</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
@@ -4217,28 +4217,28 @@
         <v>33</v>
       </c>
       <c r="D41" s="236">
-        <v>10.921080828671117</v>
+        <v>10.921756475211842</v>
       </c>
       <c r="E41" s="236">
-        <v>17.198699042979612</v>
+        <v>17.198578765781644</v>
       </c>
       <c r="F41" s="236">
-        <v>41.689031581242986</v>
+        <v>41.689002422794275</v>
       </c>
       <c r="G41" s="236">
-        <v>32.89236085163278</v>
+        <v>32.892364744279334</v>
       </c>
       <c r="H41" s="236">
-        <v>19.596517511299439</v>
+        <v>19.596556154739346</v>
       </c>
       <c r="I41" s="236">
-        <v>1.3907824107152669</v>
+        <v>1.3908086745086197</v>
       </c>
       <c r="J41" s="236">
-        <v>-2.0656283521599756</v>
+        <v>-2.0656283521578227</v>
       </c>
       <c r="K41" s="236">
-        <v>0.035330183899633057</v>
+        <v>0.035330183899633064</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
@@ -4246,7 +4246,7 @@
         <v>34</v>
       </c>
       <c r="D42" s="236">
-        <v>121.65817405828085</v>
+        <v>121.65876906905687</v>
       </c>
       <c r="E42" s="236">
         <v>0</v>
@@ -4319,28 +4319,28 @@
         <v>44</v>
       </c>
       <c r="D46" s="236">
-        <v>22678.868214352518</v>
+        <v>22678.868213604183</v>
       </c>
       <c r="E46" s="236">
-        <v>22861.946320486888</v>
+        <v>22861.946317598118</v>
       </c>
       <c r="F46" s="236">
-        <v>22814.876061783525</v>
+        <v>22814.876037761165</v>
       </c>
       <c r="G46" s="236">
-        <v>22251.716244294686</v>
+        <v>22251.716220670598</v>
       </c>
       <c r="H46" s="236">
-        <v>21595.356679148725</v>
+        <v>21595.356655917312</v>
       </c>
       <c r="I46" s="236">
-        <v>20115.195685397281</v>
+        <v>20115.195662934515</v>
       </c>
       <c r="J46" s="236">
-        <v>18774.927152690692</v>
+        <v>18774.927130974567</v>
       </c>
       <c r="K46" s="236">
-        <v>16253.765342519173</v>
+        <v>16253.765321528006</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
@@ -4348,28 +4348,28 @@
         <v>45</v>
       </c>
       <c r="D47" s="236">
-        <v>23837.710979557643</v>
+        <v>23837.711648533554</v>
       </c>
       <c r="E47" s="236">
-        <v>23321.625951216003</v>
+        <v>23321.626271680456</v>
       </c>
       <c r="F47" s="236">
-        <v>22814.876061783525</v>
+        <v>22814.876037761169</v>
       </c>
       <c r="G47" s="236">
-        <v>22317.284532379726</v>
+        <v>22317.284167604004</v>
       </c>
       <c r="H47" s="236">
-        <v>21828.674075016424</v>
+        <v>21828.6733729466</v>
       </c>
       <c r="I47" s="236">
-        <v>20877.688092287382</v>
+        <v>20877.686724989391</v>
       </c>
       <c r="J47" s="236">
-        <v>19960.509894329094</v>
+        <v>19960.507872733117</v>
       </c>
       <c r="K47" s="236">
-        <v>19075.753131683963</v>
+        <v>19075.750465046942</v>
       </c>
     </row>
     <row r="48" hidden="1" ht="15" customHeight="1">
@@ -4390,28 +4390,28 @@
         <v>47</v>
       </c>
       <c r="D49" s="236">
-        <v>5.1097909924435347</v>
+        <v>5.1097939456882839</v>
       </c>
       <c r="E49" s="236">
-        <v>2.01067583785371</v>
+        <v>2.0106772524808894</v>
       </c>
       <c r="F49" s="236">
-        <v>0</v>
+        <v>1.594564354007645E-14</v>
       </c>
       <c r="G49" s="236">
-        <v>0.29466620626106355</v>
+        <v>0.29466467342639124</v>
       </c>
       <c r="H49" s="236">
-        <v>1.0804053822041204</v>
+        <v>1.0804022399202027</v>
       </c>
       <c r="I49" s="236">
-        <v>3.7906288301417659</v>
+        <v>3.7906221487066549</v>
       </c>
       <c r="J49" s="236">
-        <v>6.3147128721002384</v>
+        <v>6.3147022275393958</v>
       </c>
       <c r="K49" s="236">
-        <v>17.362055681846151</v>
+        <v>17.362039427142676</v>
       </c>
     </row>
     <row r="50" hidden="1" ht="15" customHeight="1">
@@ -5094,25 +5094,25 @@
         <v>67</v>
       </c>
       <c r="B89" s="261">
-        <v>2094.0871580145531</v>
+        <v>2094.0871403775368</v>
       </c>
       <c r="C89" s="261">
-        <v>0.071327327546138783</v>
+        <v>0.071390248713767271</v>
       </c>
       <c r="D89" s="261">
-        <v>0.36636488263334038</v>
+        <v>0.366322809033926</v>
       </c>
       <c r="E89" s="261">
-        <v>0.23370175269549023</v>
+        <v>0.23368953787024727</v>
       </c>
       <c r="F89" s="261">
-        <v>0.10771107845329994</v>
+        <v>0.1077119905117033</v>
       </c>
       <c r="G89" s="261">
-        <v>0.049387370589682927</v>
+        <v>0.049393698579070819</v>
       </c>
       <c r="H89" s="261">
-        <v>0.010604790084776954</v>
+        <v>0.010610186625706414</v>
       </c>
       <c r="I89" s="261">
         <v>0</v>
@@ -5121,10 +5121,10 @@
         <v>0</v>
       </c>
       <c r="K89" s="261">
-        <v>0.83470454511179437</v>
+        <v>0.8346943092300142</v>
       </c>
       <c r="L89" s="261">
-        <v>-0.11063252845605096</v>
+        <v>-0.11083682757166431</v>
       </c>
     </row>
     <row r="90" outlineLevel="2">
@@ -5170,25 +5170,25 @@
         <v>69</v>
       </c>
       <c r="B91" s="261">
-        <v>758.148109812388</v>
+        <v>758.14810342704129</v>
       </c>
       <c r="C91" s="261">
-        <v>0.071327327546128985</v>
+        <v>0.07139024871309721</v>
       </c>
       <c r="D91" s="261">
-        <v>0.3663648826332308</v>
+        <v>0.36632280903312919</v>
       </c>
       <c r="E91" s="261">
-        <v>0.23370175269621885</v>
+        <v>0.23368953787082336</v>
       </c>
       <c r="F91" s="261">
-        <v>0.1077110784556618</v>
+        <v>0.1077119905099747</v>
       </c>
       <c r="G91" s="261">
-        <v>0.049387370589416522</v>
+        <v>0.049393698580391519</v>
       </c>
       <c r="H91" s="261">
-        <v>0.010604790086426837</v>
+        <v>0.010610186625941846</v>
       </c>
       <c r="I91" s="261">
         <v>0</v>
@@ -5197,10 +5197,10 @@
         <v>0</v>
       </c>
       <c r="K91" s="261">
-        <v>0.83470454511139691</v>
+        <v>0.83469430923052867</v>
       </c>
       <c r="L91" s="261">
-        <v>-0.11063252851533363</v>
+        <v>-0.11083682754033479</v>
       </c>
     </row>
     <row r="92" outlineLevel="2">
@@ -5208,37 +5208,37 @@
         <v>70</v>
       </c>
       <c r="B92" s="263">
-        <v>65337.373280499189</v>
+        <v>65337.373274113845</v>
       </c>
       <c r="C92" s="263">
-        <v>0.070398834095484614</v>
+        <v>0.0703995642068591</v>
       </c>
       <c r="D92" s="263">
-        <v>0.52829317603849</v>
+        <v>0.52829268784961581</v>
       </c>
       <c r="E92" s="263">
-        <v>0.50358175413807937</v>
+        <v>0.50358161242859156</v>
       </c>
       <c r="F92" s="263">
-        <v>0.43802692012458611</v>
+        <v>0.43802693073995019</v>
       </c>
       <c r="G92" s="263">
-        <v>0.3925763977784118</v>
+        <v>0.39257647123930867</v>
       </c>
       <c r="H92" s="263">
-        <v>0.26602549051731489</v>
+        <v>0.26602555316149246</v>
       </c>
       <c r="I92" s="263">
-        <v>0.0506040515572372</v>
+        <v>0.050604051562182673</v>
       </c>
       <c r="J92" s="263">
-        <v>0.0043216299267284592</v>
+        <v>0.0043216299271508071</v>
       </c>
       <c r="K92" s="263">
-        <v>2.24522237538606</v>
+        <v>2.2452222567509326</v>
       </c>
       <c r="L92" s="263">
-        <v>-0.58248974627482508</v>
+        <v>-0.5824921169237971</v>
       </c>
     </row>
     <row r="93" outlineLevel="2">
@@ -5246,37 +5246,37 @@
         <v>71</v>
       </c>
       <c r="B93" s="263">
-        <v>67431.460438513735</v>
+        <v>67431.46041449139</v>
       </c>
       <c r="C93" s="263">
-        <v>0.07042766850304169</v>
+        <v>0.0704303299602143</v>
       </c>
       <c r="D93" s="263">
-        <v>0.52326448531261127</v>
+        <v>0.52326270572741251</v>
       </c>
       <c r="E93" s="263">
-        <v>0.49520061806967292</v>
+        <v>0.495200101496606</v>
       </c>
       <c r="F93" s="263">
-        <v>0.42776894621101685</v>
+        <v>0.42776898490346077</v>
       </c>
       <c r="G93" s="263">
-        <v>0.38191864648644691</v>
+        <v>0.38191891426803681</v>
       </c>
       <c r="H93" s="263">
-        <v>0.25809338871822857</v>
+        <v>0.25809361707067713</v>
       </c>
       <c r="I93" s="263">
-        <v>0.049032540369076283</v>
+        <v>0.049032540386651946</v>
       </c>
       <c r="J93" s="263">
-        <v>0.0041874215071563605</v>
+        <v>0.004187421508648123</v>
       </c>
       <c r="K93" s="263">
-        <v>2.2014186781901284</v>
+        <v>2.2014182457167273</v>
       </c>
       <c r="L93" s="263">
-        <v>-0.56783619830137733</v>
+        <v>-0.56784483997449664</v>
       </c>
     </row>
     <row r="94" outlineLevel="2">
@@ -5398,37 +5398,37 @@
         <v>75</v>
       </c>
       <c r="B97" s="263">
-        <v>87931.612332671109</v>
+        <v>87931.61230864875</v>
       </c>
       <c r="C97" s="263">
-        <v>0.067743526587145234</v>
+        <v>0.067745567558328015</v>
       </c>
       <c r="D97" s="263">
-        <v>0.52066037165888457</v>
+        <v>0.52065900696084755</v>
       </c>
       <c r="E97" s="263">
-        <v>0.66017802221609756</v>
+        <v>0.660177626120712</v>
       </c>
       <c r="F97" s="263">
-        <v>0.32803998480223689</v>
+        <v>0.32804001444686059</v>
       </c>
       <c r="G97" s="263">
-        <v>0.29287910704789383</v>
+        <v>0.29287931237532439</v>
       </c>
       <c r="H97" s="263">
-        <v>0.19792215415026074</v>
+        <v>0.1979223292489288</v>
       </c>
       <c r="I97" s="263">
-        <v>0.037601218929042626</v>
+        <v>0.037601218939315041</v>
       </c>
       <c r="J97" s="263">
-        <v>0.0032111767339251095</v>
+        <v>0.0032111767348023826</v>
       </c>
       <c r="K97" s="263">
-        <v>2.1008593280919832</v>
+        <v>2.1008589964169393</v>
       </c>
       <c r="L97" s="263">
-        <v>-0.44478321133868753</v>
+        <v>-0.44478983827558755</v>
       </c>
     </row>
     <row r="98" outlineLevel="2">
@@ -5702,37 +5702,37 @@
         <v>83</v>
       </c>
       <c r="B105" s="263">
-        <v>110508.3249580165</v>
+        <v>110508.32493399414</v>
       </c>
       <c r="C105" s="263">
-        <v>0.063306091476997492</v>
+        <v>0.063307715479288831</v>
       </c>
       <c r="D105" s="263">
-        <v>0.50004447612971559</v>
+        <v>0.50004339023329991</v>
       </c>
       <c r="E105" s="263">
-        <v>0.76759484171146986</v>
+        <v>0.76759452656122662</v>
       </c>
       <c r="F105" s="263">
-        <v>0.39466242703706339</v>
+        <v>0.39466245063981</v>
       </c>
       <c r="G105" s="263">
-        <v>0.23304427165162056</v>
+        <v>0.23304443501777516</v>
       </c>
       <c r="H105" s="263">
-        <v>0.1574869055105102</v>
+        <v>0.15748704482794945</v>
       </c>
       <c r="I105" s="263">
-        <v>0.029919336912948319</v>
+        <v>0.02991933691938636</v>
       </c>
       <c r="J105" s="263">
-        <v>0.0025551373419737317</v>
+        <v>0.0025551373424633284</v>
       </c>
       <c r="K105" s="263">
-        <v>2.1421563089688229</v>
+        <v>2.1421560450634871</v>
       </c>
       <c r="L105" s="263">
-        <v>-0.35114782153745405</v>
+        <v>-0.35115309457775912</v>
       </c>
     </row>
     <row r="106" outlineLevel="2">
@@ -5930,37 +5930,37 @@
         <v>49</v>
       </c>
       <c r="B111" s="263">
-        <v>137447.93757340554</v>
+        <v>137447.93754938318</v>
       </c>
       <c r="C111" s="263">
-        <v>0.063703367885913784</v>
+        <v>0.0637046735860423</v>
       </c>
       <c r="D111" s="263">
-        <v>0.40531509226593315</v>
+        <v>0.40531421918726462</v>
       </c>
       <c r="E111" s="263">
-        <v>0.65024913461203082</v>
+        <v>0.65024888121014757</v>
       </c>
       <c r="F111" s="263">
-        <v>0.34288908861722128</v>
+        <v>0.34288910758486529</v>
       </c>
       <c r="G111" s="263">
-        <v>0.19589288335381025</v>
+        <v>0.19589301469392312</v>
       </c>
       <c r="H111" s="263">
-        <v>0.14225157030604502</v>
+        <v>0.14225168231478907</v>
       </c>
       <c r="I111" s="263">
-        <v>0.0378414399963746</v>
+        <v>0.037841440002988308</v>
       </c>
       <c r="J111" s="263">
-        <v>0.0067678846801316386</v>
+        <v>0.006767884681314491</v>
       </c>
       <c r="K111" s="263">
-        <v>1.839653917351062</v>
+        <v>1.8396537051179505</v>
       </c>
       <c r="L111" s="263">
-        <v>-0.31275201447379336</v>
+        <v>-0.31275625400063167</v>
       </c>
     </row>
     <row r="113">
@@ -6342,37 +6342,37 @@
         <v>97</v>
       </c>
       <c r="B125" s="263">
-        <v>22814.876061783525</v>
+        <v>22814.876037761165</v>
       </c>
       <c r="C125" s="263">
-        <v>0.12714693603507979</v>
+        <v>0.12715480227570258</v>
       </c>
       <c r="D125" s="263">
-        <v>0.75217866106174236</v>
+        <v>0.75217340157552015</v>
       </c>
       <c r="E125" s="263">
-        <v>2.1836443968897181</v>
+        <v>2.1836428718883258</v>
       </c>
       <c r="F125" s="263">
-        <v>0.962516850907053</v>
+        <v>0.96251696582957136</v>
       </c>
       <c r="G125" s="263">
-        <v>0.40115051289380255</v>
+        <v>0.4011513043667238</v>
       </c>
       <c r="H125" s="263">
-        <v>0.035725401058678052</v>
+        <v>0.035726075741403782</v>
       </c>
       <c r="I125" s="263">
-        <v>-0.076489895786286649</v>
+        <v>-0.076489895866745067</v>
       </c>
       <c r="J125" s="263">
-        <v>0.002110351440580813</v>
+        <v>0.0021103514428028555</v>
       </c>
       <c r="K125" s="263">
-        <v>4.4073105705909219</v>
+        <v>4.4073092946991252</v>
       </c>
       <c r="L125" s="263">
-        <v>-2.7068172630260192</v>
+        <v>-2.7068428065060739</v>
       </c>
     </row>
   </sheetData>
